--- a/www/bend/file_storage/AMRL Equipment Calibrations/2006 Equipment Calibrations/2006 Digital Caliper Calibration.xlsx
+++ b/www/bend/file_storage/AMRL Equipment Calibrations/2006 Equipment Calibrations/2006 Digital Caliper Calibration.xlsx
@@ -141,6 +141,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -845,7 +846,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:H29"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
